--- a/data/income_statement/2digits/size/21_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/21_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10672106.34223</v>
+        <v>10485306.96183</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>11507421.30159</v>
+        <v>11281728.95813</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12182085.82255</v>
+        <v>11890233.67254</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>12698255.22162</v>
+        <v>12508176.96105</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11747458.9709</v>
+        <v>11428775.94964</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13508877.78299</v>
+        <v>13007628.52743</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17039466.29084</v>
+        <v>16824742.04561</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19166617.70188</v>
+        <v>18929716.56401</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>22944190.06624</v>
+        <v>22679218.79114</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27500378.3787</v>
+        <v>26877452.29567</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>37284470.90847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>36822473.79519</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>46470416.138</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>10025473.95857</v>
+        <v>9856751.73677</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10802443.64394</v>
+        <v>10590384.28533</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>11276725.8416</v>
+        <v>11013343.0982</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11703385.34743</v>
+        <v>11533898.94152</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10665079.0654</v>
+        <v>10385531.45854</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12235451.13908</v>
+        <v>11808239.43375</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15407780.89373</v>
+        <v>15209955.24034</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17387023.24213</v>
+        <v>17202204.42376</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>20594656.99978</v>
+        <v>20367767.55135</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>24217081.31888</v>
+        <v>23700737.30013</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>33072982.86681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32652089.58963</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>40618205.991</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>543960.6052100001</v>
+        <v>538216.6166699999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>630423.12699</v>
+        <v>623460.34936</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>805000.5545399999</v>
+        <v>787793.5074</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>911697.32653</v>
+        <v>896276.59268</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1014805.8481</v>
+        <v>984071.8689199999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1169529.00618</v>
+        <v>1101560.4775</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1422211.27322</v>
+        <v>1395385.6829</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1631467.98234</v>
+        <v>1589809.58283</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2114995.54395</v>
+        <v>2082406.23608</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3063178.17935</v>
+        <v>2959693.3009</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3898113.78293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3864985.5085</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5492219.155</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>102671.77845</v>
+        <v>90338.60838999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>74554.53065999999</v>
+        <v>67884.32343999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>100359.42641</v>
+        <v>89097.06694</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>83172.54766</v>
+        <v>78001.42684999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>67574.05740000001</v>
+        <v>59172.62218</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>103897.63773</v>
+        <v>97828.61618000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>209474.12389</v>
+        <v>219401.12237</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>148126.47741</v>
+        <v>137702.55742</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>234537.52251</v>
+        <v>229045.00371</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>220118.88047</v>
+        <v>217021.69464</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>313374.25873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>305398.69706</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>359990.992</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2754607.44487</v>
+        <v>2685312.35223</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2888097.7176</v>
+        <v>2811786.37498</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3575942.21972</v>
+        <v>3463659.98686</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3528773.38579</v>
+        <v>3445313.40606</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3272746.22493</v>
+        <v>3142411.16675</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3629966.98859</v>
+        <v>3524733.05831</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4442749.69022</v>
+        <v>4389144.59731</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4658489.50739</v>
+        <v>4679854.34821</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5505225.24101</v>
+        <v>5474565.0094</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6444970.803640001</v>
+        <v>6381823.76527</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8530867.990020001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8474876.55594</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>10313977.654</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>69944.51866</v>
+        <v>66534.03251</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>160813.24382</v>
+        <v>155487.1335</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>110407.94382</v>
+        <v>102296.10104</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>98241.42384</v>
+        <v>91767.56922</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>74094.58253</v>
+        <v>66983.24746</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>82544.12406</v>
+        <v>76982.73228</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>61124.66524</v>
+        <v>56420.69108</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>95138.54537000001</v>
+        <v>86188.09509</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>125770.57925</v>
+        <v>121177.03326</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>115644.82352</v>
+        <v>114762.84998</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>125679.67855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>117175.79049</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>176427.042</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2671498.42812</v>
+        <v>2607884.14819</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2702591.7487</v>
+        <v>2632324.63825</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3445276.45814</v>
+        <v>3353575.54045</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3382410.5789</v>
+        <v>3328003.94553</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3168573.99393</v>
+        <v>3045540.31864</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3510930.31573</v>
+        <v>3411505.4681</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4352505.730649999</v>
+        <v>4294979.18849</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4521722.54087</v>
+        <v>4552679.16211</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5322388.02791</v>
+        <v>5296791.23805</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6266489.1037</v>
+        <v>6207144.29488</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8296757.03864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8251624.73581</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9928713.753</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>13164.49809</v>
+        <v>10894.17153</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>24692.72508</v>
+        <v>23974.60323</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>20257.81776</v>
+        <v>7788.34537</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>48121.38305</v>
+        <v>25541.89131</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>30077.64847</v>
+        <v>29887.60065</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>36492.5488</v>
+        <v>36244.85793</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>29119.29433</v>
+        <v>37744.71774</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>41628.42115</v>
+        <v>40987.09101</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>57066.63385</v>
+        <v>56596.73809000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>62836.87642</v>
+        <v>59916.62041</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>108431.27283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>106076.02964</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>208836.859</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7917498.89736</v>
+        <v>7799994.6096</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8619323.58399</v>
+        <v>8469942.583149999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8606143.60283</v>
+        <v>8426573.68568</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9169481.835829999</v>
+        <v>9062863.554989999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8474712.74597</v>
+        <v>8286364.78289</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9878910.794399999</v>
+        <v>9482895.469120001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12596716.60062</v>
+        <v>12435597.4483</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14508128.19449</v>
+        <v>14249862.2158</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>17438964.82523</v>
+        <v>17204653.78174</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21055407.57506</v>
+        <v>20495628.5304</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>28753602.91845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>28347597.23925</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>36156438.484</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4442609.445090001</v>
+        <v>4366062.814590001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4937783.208810001</v>
+        <v>4824572.82785</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5348102.89848</v>
+        <v>5210133.35726</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5654072.113770001</v>
+        <v>5558170.83781</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5104324.32767</v>
+        <v>4961034.34828</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5978840.91064</v>
+        <v>5710882.27845</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7593042.41467</v>
+        <v>7463990.51221</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8596632.64931</v>
+        <v>8427624.971829999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10172093.29788</v>
+        <v>10026392.52909</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12473951.10194</v>
+        <v>12131814.19909</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>16118741.58943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15868779.83381</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>20677168.551</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2926708.35241</v>
+        <v>2860195.0484</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3415232.08646</v>
+        <v>3320624.33761</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3659562.79531</v>
+        <v>3559626.88845</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3895607.75734</v>
+        <v>3805633.73791</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3692146.75384</v>
+        <v>3566727.30236</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4462460.61756</v>
+        <v>4222046.10891</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5648040.148689999</v>
+        <v>5523817.18716</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6417143.50176</v>
+        <v>6251265.305819999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7363787.05733</v>
+        <v>7234606.26108</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9875458.737709999</v>
+        <v>9551160.388590001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>12693866.90169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12451768.123</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16216801.178</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1264577.48691</v>
+        <v>1258768.88316</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1240031.89282</v>
+        <v>1224056.316</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1423595.33161</v>
+        <v>1389886.73887</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1479165.95098</v>
+        <v>1474023.03062</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1062107.19769</v>
+        <v>1056816.71513</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1122039.59611</v>
+        <v>1107735.39539</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1476202.5367</v>
+        <v>1476299.46241</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1768762.87189</v>
+        <v>1770580.59079</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2340013.08093</v>
+        <v>2325410.5083</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1904368.4318</v>
+        <v>1892524.73683</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2405810.12882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2398966.22275</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3232715.697</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>191559.37626</v>
+        <v>187414.00638</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>253179.23613</v>
+        <v>251476.14592</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>234193.81874</v>
+        <v>230360.54638</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>254840.19883</v>
+        <v>254055.86266</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>289026.16279</v>
+        <v>279033.4393</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>278892.95961</v>
+        <v>267605.95366</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>285134.90121</v>
+        <v>279770.22668</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>271590.37122</v>
+        <v>267080.02775</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>259123.92055</v>
+        <v>257206.52064</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>414945.96171</v>
+        <v>409338.19706</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>650428.0703200001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>649408.9994600001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>723304.041</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>59764.22951</v>
+        <v>59684.87665</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>29339.9934</v>
+        <v>28416.02832</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>30750.95282</v>
+        <v>30259.18356</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>24458.20662</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>61044.21335</v>
+        <v>58456.89149</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>115447.73736</v>
+        <v>113494.82049</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>183664.82807</v>
+        <v>184103.63596</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>139135.90444</v>
+        <v>138699.04747</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>209169.23907</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>279177.97072</v>
+        <v>278790.87661</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>368636.4886</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>504347.635</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3474889.45227</v>
+        <v>3433931.79501</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3681540.37518</v>
+        <v>3645369.7553</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3258040.70435</v>
+        <v>3216440.32842</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3515409.72206</v>
+        <v>3504692.71718</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3370388.4183</v>
+        <v>3325330.43461</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3900069.88376</v>
+        <v>3772013.19067</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5003674.18595</v>
+        <v>4971606.93609</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5911495.54518</v>
+        <v>5822237.24397</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>7266871.52735</v>
+        <v>7178261.252649999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8581456.47312</v>
+        <v>8363814.33131</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>12634861.32902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12478817.40544</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15479269.933</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2766857.59442</v>
+        <v>2729087.5142</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2943456.10983</v>
+        <v>2899450.21683</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3071887.06093</v>
+        <v>3008638.84156</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3127221.22158</v>
+        <v>3097804.27913</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2997074.20454</v>
+        <v>2903902.39906</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3210312.44918</v>
+        <v>3091375.27756</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3566699.85731</v>
+        <v>3528517.32614</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3855581.09056</v>
+        <v>3798012.73637</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4570559.82746</v>
+        <v>4517026.604560001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5187803.51669</v>
+        <v>5043792.87617</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6326261.44864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6239853.99054</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6995763.432</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>81116.82445</v>
+        <v>80500.14953</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>90599.49885999999</v>
+        <v>89958.89141</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>97076.71612000001</v>
+        <v>96109.67894</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>91603.51136</v>
+        <v>90884.31031999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>98497.51002</v>
+        <v>95296.46255</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>97247.53082</v>
+        <v>91804.27884999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>127419.90056</v>
+        <v>129546.37938</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>152756.55342</v>
+        <v>152251.90325</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>192055.33032</v>
+        <v>190821.18141</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>199634.57641</v>
+        <v>183881.92812</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>246182.38041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>245178.17461</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>226649.586</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2207059.51991</v>
+        <v>2188211.52812</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2296509.37369</v>
+        <v>2275226.51848</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2375624.15074</v>
+        <v>2342149.34721</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2388732.28024</v>
+        <v>2378024.38794</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2249759.71651</v>
+        <v>2197838.46611</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2413441.59559</v>
+        <v>2336533.56356</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2602889.425</v>
+        <v>2579972.36135</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2781116.72063</v>
+        <v>2749154.00297</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3316938.2192</v>
+        <v>3299246.56669</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3795940.25119</v>
+        <v>3720627.84018</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4607006.172979999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4544374.995</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4653624.212</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>478681.25006</v>
+        <v>460375.83655</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>556347.23728</v>
+        <v>534264.80694</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>599186.1940700001</v>
+        <v>570379.8154099999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>646885.42998</v>
+        <v>628895.5808699999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>648816.97801</v>
+        <v>610767.4704</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>699623.32277</v>
+        <v>663037.43515</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>836390.53175</v>
+        <v>818998.5854099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>921707.81651</v>
+        <v>896606.8301499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1061566.27794</v>
+        <v>1026958.85646</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1192228.68909</v>
+        <v>1139283.10787</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1473072.89525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1450300.82093</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2115489.634</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>708031.85785</v>
+        <v>704844.2808099999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>738084.26535</v>
+        <v>745919.53847</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>186153.64342</v>
+        <v>207801.48686</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>388188.50048</v>
+        <v>406888.43805</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>373314.21376</v>
+        <v>421428.03555</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>689757.43458</v>
+        <v>680637.91311</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1436974.32864</v>
+        <v>1443089.60995</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2055914.45462</v>
+        <v>2024224.5076</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2696311.69989</v>
+        <v>2661234.64809</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3393652.95643</v>
+        <v>3320021.45514</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6308599.88038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6238963.414899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8483506.501</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>365411.81801</v>
+        <v>353257.66176</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>375253.38042</v>
+        <v>355174.70433</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>447605.42854</v>
+        <v>430760.54466</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>593999.4660700001</v>
+        <v>408620.63301</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>409932.53984</v>
+        <v>359787.01446</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>607428.91325</v>
+        <v>532432.00643</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>806550.41753</v>
+        <v>784525.63419</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>906443.68941</v>
+        <v>865044.4798</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1105139.94592</v>
+        <v>1048519.57244</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2102324.85365</v>
+        <v>2022049.66736</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1657153.08937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1585322.96238</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2716785.96</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>360.36695</v>
+        <v>317.90056</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>448.58907</v>
+        <v>417.71468</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>435.70482</v>
+        <v>407.24248</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>207.72485</v>
+        <v>173.39705</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>181.08474</v>
+        <v>158.66288</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>540.5494399999999</v>
+        <v>532.8195999999999</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>79.48927999999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1203.07751</v>
+        <v>25.3045</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1277.83085</v>
+        <v>1277.71433</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>2178.61268</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>36178.28996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>24178.28996</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>23964.54</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15.36161</v>
@@ -1820,7 +1836,7 @@
         <v>1.57145</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>225.93901</v>
+        <v>214.06631</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>23745.51353</v>
@@ -1838,52 +1854,62 @@
         <v>881.22399</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>43661.08309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>608.317</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>95.994</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>39904.50306</v>
+        <v>38257.95976</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>40236.62431</v>
+        <v>38285.72602</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>32330.57953</v>
+        <v>30701.56575</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>50148.21697</v>
+        <v>41823.03726</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>42146.25649</v>
+        <v>36189.21897</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>82127.49655</v>
+        <v>76946.08101000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>113736.33068</v>
+        <v>109566.25918</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>175961.81767</v>
+        <v>172181.16597</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>235771.60415</v>
+        <v>230808.84803</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>337472.93368</v>
+        <v>328861.34396</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>388998.3609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>384195.10568</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>243813.967</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10163.43178</v>
@@ -1907,79 +1933,89 @@
         <v>3169.96778</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3360.70463</v>
+        <v>2792.67239</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6231.21462</v>
+        <v>6138.94524</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2143.79398</v>
+        <v>1296.32752</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>2179.94935</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2467.89</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>18444.23812</v>
+        <v>12044.23812</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>25970.65184</v>
+        <v>19330.50619</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>45462.52344</v>
+        <v>38873.16504</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>41247.14581</v>
+        <v>40342.13052000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>46967.87544</v>
+        <v>40028.97569</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>32825.56391</v>
+        <v>25681.36912</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>39409.08871</v>
+        <v>38524.57096</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>29310.08039</v>
+        <v>28842.36883</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>59510.9006</v>
+        <v>57839.18264</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>31796.04188</v>
+        <v>31241.69244</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>68820.55235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>68355.29539</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>62194.905</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>11506.72539</v>
+        <v>11488.61901</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1499.66845</v>
+        <v>1498.69921</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1734.01353</v>
+        <v>1732.71665</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>94016.65072000001</v>
+        <v>2985.92509</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>11211.83324</v>
+        <v>11211.23675</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1778.05538</v>
+        <v>1456.80895</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>14784.0527</v>
@@ -1988,7 +2024,7 @@
         <v>5900.464980000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>8675.050310000001</v>
+        <v>8601.438529999999</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>11851.08221</v>
@@ -1996,59 +2032,69 @@
       <c r="M31" s="48" t="n">
         <v>5664.568780000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>126229.993</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>191823.84775</v>
+        <v>190403.35369</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>186940.53072</v>
+        <v>178330.76092</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>205776.3232</v>
+        <v>202098.91025</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>213854.23743</v>
+        <v>209017.69654</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>204351.12163</v>
+        <v>168220.50424</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>292753.88106</v>
+        <v>258785.97657</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>381365.26494</v>
+        <v>367734.08743</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>387306.19802</v>
+        <v>355815.11971</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>494976.96508</v>
+        <v>448899.48437</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1444901.8898</v>
+        <v>1380973.7861</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>760210.75662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>751221.19388</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1857482.415</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6684.96315</v>
+        <v>6606.05364</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>4104.53795</v>
+        <v>4101.55796</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>7057.25571</v>
+        <v>3797.53205</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>6037.92308</v>
@@ -2057,28 +2103,33 @@
         <v>5406.51829</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>13747.54339</v>
+        <v>7495.3734</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>13151.7645</v>
+        <v>11035.38306</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>22048.21291</v>
+        <v>19603.87958</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>34482.22724</v>
+        <v>33005.25492</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>15639.69518</v>
+        <v>13159.63185</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>35366.57504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>33755.18122</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>33486.089</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>18326.193</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>86508.3802</v>
+        <v>83960.74359</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>96986.80706000001</v>
+        <v>94143.76832999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>138053.7573</v>
+        <v>136394.14143</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>177705.58993</v>
+        <v>97458.54618999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>94614.56309000001</v>
+        <v>93530.48342</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>156468.76948</v>
+        <v>134346.52374</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>225513.22457</v>
+        <v>224290.58943</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>275093.69699</v>
+        <v>273624.06753</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>247532.46796</v>
+        <v>245267.01927</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>248878.89098</v>
+        <v>245025.27734</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>316072.95328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>315165.06112</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>348723.974</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>170844.47653</v>
+        <v>163107.77587</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>224447.26684</v>
+        <v>211319.60236</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>341598.08037</v>
+        <v>331952.1371000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>200613.22732</v>
+        <v>192628.56511</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>376422.38321</v>
+        <v>299444.02158</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>297154.5161</v>
+        <v>254088.33852</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>565815.2781100001</v>
+        <v>543386.37105</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>590199.38373</v>
+        <v>562980.90328</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>730781.7115099999</v>
+        <v>677693.81825</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1667900.79707</v>
+        <v>1589669.76706</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1132238.98799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1121617.58462</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2293598.143</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1349.50286</v>
+        <v>1340.83774</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1982.86907</v>
+        <v>1972.60944</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>1311.3589</v>
@@ -2210,16 +2276,16 @@
         <v>916.6055200000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>457.78621</v>
+        <v>442.63402</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1168.93279</v>
+        <v>1149.64757</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3320.69968</v>
+        <v>3302.44283</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3269.64768</v>
+        <v>3252.68095</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>10436.83888</v>
@@ -2230,53 +2296,63 @@
       <c r="M37" s="48" t="n">
         <v>4989.4125</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>10448.112</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>18186.03509</v>
+        <v>13249.13945</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>29036.95775</v>
+        <v>28180.8302</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>29458.86022</v>
+        <v>28478.59317</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>18751.99269</v>
+        <v>18408.75948</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>22974.95863</v>
+        <v>22704.78976</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>14437.58883</v>
+        <v>13471.13194</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>25841.81976</v>
+        <v>25050.6829</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>63087.11511999999</v>
+        <v>62561.11839</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>38147.84665</v>
+        <v>37929.50566</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>53170.54067</v>
+        <v>51260.82299</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>55812.33251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>55569.37589</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>66910.58199999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>907.771</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>92.18075999999999</v>
@@ -2308,89 +2384,104 @@
       <c r="M39" s="48" t="n">
         <v>178.6923</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>6578.047</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>123237.46836</v>
+        <v>121761.15583</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>155126.21352</v>
+        <v>145568.03898</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>243429.72107</v>
+        <v>237079.59354</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>136207.0856</v>
+        <v>128873.66368</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>283636.81467</v>
+        <v>207988.72725</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>211289.82327</v>
+        <v>177295.6027</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>333355.57668</v>
+        <v>316076.00103</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>392473.68589</v>
+        <v>367660.19919</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>518786.13542</v>
+        <v>469790.22849</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1458648.84279</v>
+        <v>1388178.30362</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>825346.26928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>815523.40011</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1820051.018</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4079.20995</v>
+        <v>4064.73075</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>4090.76371</v>
+        <v>4087.62581</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>7010.84797</v>
+        <v>4880.23921</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>6343.99829</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>6968.59134</v>
+        <v>6746.875230000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>12573.56325</v>
+        <v>6325.991</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>16369.33694</v>
+        <v>11979.85534</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>20733.67146</v>
+        <v>19306.2354</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>35556.27994</v>
+        <v>33749.00362</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>26319.36596</v>
+        <v>23009.87687</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>36714.53427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>36221.72197</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>60778.688</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>23084.48927</v>
+        <v>22691.9121</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>34118.28203</v>
+        <v>31418.31717</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>60383.75221</v>
+        <v>60198.81228</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>38385.63708</v>
+        <v>38077.63</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>57006.9671</v>
+        <v>56183.73006</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>57684.60796</v>
+        <v>55845.96531</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>186927.84505</v>
+        <v>186977.38895</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>110420.5231</v>
+        <v>109985.92887</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>126183.61145</v>
+        <v>124117.24243</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>115023.44444</v>
+        <v>112482.16037</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>209197.74713</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>209134.98185</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>328831.696</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>328422.61509</v>
+        <v>315051.27149</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>227806.17941</v>
+        <v>218145.06724</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>388960.26619</v>
+        <v>379343.3049700001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>280639.95377</v>
+        <v>257890.11633</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>467414.93952</v>
+        <v>394356.15397</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>454837.49388</v>
+        <v>431748.71725</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>713157.08587</v>
+        <v>691141.6490099999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>741735.0739900001</v>
+        <v>712820.38508</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>887159.63679</v>
+        <v>870864.8868999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1644710.60625</v>
+        <v>1600531.48708</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1765074.17952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1747362.21969</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1482559.704</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>213247.04121</v>
+        <v>202663.20447</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>141011.81525</v>
+        <v>133433.67718</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>238195.79945</v>
+        <v>229143.06237</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>211218.77054</v>
+        <v>196653.9138</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>266509.77961</v>
+        <v>241894.88093</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>233821.95244</v>
+        <v>210733.17581</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>394494.9492</v>
+        <v>373372.00206</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>468295.05788</v>
+        <v>435901.12678</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>552785.7093700001</v>
+        <v>536490.95948</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1065356.20077</v>
+        <v>1022064.49201</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1109343.25955</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1103309.90104</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>956652.757</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>115175.57388</v>
+        <v>112388.06702</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>86794.36416</v>
+        <v>84711.39006000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>150764.46674</v>
+        <v>150200.2426</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>69421.18323000001</v>
+        <v>61236.20253</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>200905.15991</v>
+        <v>152461.27304</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>221015.54144</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>318662.13667</v>
+        <v>317769.64695</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>273440.01611</v>
+        <v>276919.2583</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>334373.92742</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>579354.4054800001</v>
+        <v>578466.9950700001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>655730.91997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>644052.31865</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>525906.947</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>574176.58424</v>
+        <v>579942.89521</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>661084.19952</v>
+        <v>671629.5732000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-96799.27459999999</v>
+        <v>-72733.41055</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>500934.78546</v>
+        <v>364990.38962</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-60590.56913</v>
+        <v>87414.87445999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>545194.33785</v>
+        <v>527232.8637699999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>964552.38219</v>
+        <v>993087.2240800001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1630423.68631</v>
+        <v>1613467.69904</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2183510.29751</v>
+        <v>2161195.51538</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2183366.40676</v>
+        <v>2151869.86836</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5068439.80224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4955306.57297</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>7424134.614</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>92005.46858</v>
+        <v>81750.78208</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>91690.15656999999</v>
+        <v>90074.99105</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>334833.54955</v>
+        <v>320614.20883</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>137705.64095</v>
+        <v>133411.48491</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>163521.60314</v>
+        <v>109195.24445</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>355272.07481</v>
+        <v>277799.90346</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>353502.59814</v>
+        <v>319665.59049</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>133942.05072</v>
+        <v>114441.31543</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>125735.53913</v>
+        <v>123477.98809</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>186780.19741</v>
+        <v>160243.19898</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>276626.40218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>274236.8898</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>338807.555</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3014.77481</v>
+        <v>2980.26091</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3765.82817</v>
+        <v>3763.26546</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>13675.27633</v>
+        <v>2339.23356</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12795.30428</v>
+        <v>9543.51592</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>859.85814</v>
+        <v>844.04328</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1704.77828</v>
+        <v>1688.16794</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3364.4743</v>
+        <v>3267.74176</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2094.73376</v>
+        <v>2003.07272</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2853.57272</v>
+        <v>2714.09533</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12649.75655</v>
+        <v>12603.79238</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3899.59319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3890.41852</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3106.815</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>88990.69377</v>
+        <v>78770.52117000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>87924.32840000001</v>
+        <v>86311.72559</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>321158.27322</v>
+        <v>318274.97527</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>124910.33667</v>
+        <v>123867.96899</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>162661.745</v>
+        <v>108351.20117</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>353567.29653</v>
+        <v>276111.73552</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>350138.12384</v>
+        <v>316397.84873</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>131847.31696</v>
+        <v>112438.24271</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>122881.96641</v>
+        <v>120763.89276</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>174130.44086</v>
+        <v>147639.4066</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>272726.80899</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>270346.47128</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>335700.74</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>127975.9561</v>
+        <v>119089.7581</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>132050.02135</v>
+        <v>124752.72457</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>405835.69393</v>
+        <v>382375.9434700001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>195513.84565</v>
+        <v>188755.52089</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>158687.16724</v>
+        <v>131811.04602</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>184894.50515</v>
+        <v>160055.94344</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>151743.4201</v>
+        <v>141907.66038</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>330666.16453</v>
+        <v>317696.6398</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>295199.88469</v>
+        <v>285571.51823</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>561606.76075</v>
+        <v>523207.95467</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>445999.98039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>443166.06432</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>679353.326</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>30320.09344</v>
+        <v>27309.80527</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>33232.50431</v>
+        <v>31335.47436</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>50233.60646</v>
+        <v>45859.54488</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>48532.2749</v>
+        <v>48492.37018</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>74671.74342</v>
+        <v>51804.67819</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>59133.3099</v>
+        <v>53883.37782</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>48070.41497</v>
+        <v>48019.99003</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>94154.07504000001</v>
+        <v>86390.53586</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>178351.8197</v>
+        <v>174685.86646</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>190783.58082</v>
+        <v>189986.35898</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>229525.11655</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>352621.471</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4254.29345</v>
+        <v>4213.568139999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>25273.01769</v>
+        <v>20929.31094</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>33470.32499</v>
+        <v>33031.94629</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>22778.57972</v>
+        <v>22249.79034</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6996.165410000001</v>
+        <v>6780.46202</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9615.249880000001</v>
+        <v>9103.14652</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>14555.08506</v>
+        <v>7914.45424</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>17310.31386</v>
+        <v>16606.80302</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>15612.91607</v>
+        <v>13400.22826</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16320.25376</v>
+        <v>15896.05512</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11927.58144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>11758.37198</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14875.316</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>93401.56920999999</v>
+        <v>87566.38468999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>73544.49935</v>
+        <v>72487.93927</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>322131.76248</v>
+        <v>303484.4523</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>124202.99103</v>
+        <v>118013.36037</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>77019.25840999999</v>
+        <v>73225.90581</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>116145.94537</v>
+        <v>97069.4191</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>89117.92006999999</v>
+        <v>85973.21610999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>219201.77563</v>
+        <v>214699.30092</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>101235.14892</v>
+        <v>97485.42351000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>354502.92617</v>
+        <v>317325.54057</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>204547.2824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>201882.57579</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>311856.539</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>538206.09672</v>
+        <v>542603.91919</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>620724.33474</v>
+        <v>636951.83968</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-167801.41898</v>
+        <v>-134495.14519</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>443126.58076</v>
+        <v>309646.35364</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-55756.13323</v>
+        <v>64799.07289</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>715571.90751</v>
+        <v>644976.8237899999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1166311.56023</v>
+        <v>1170845.15419</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1433699.5725</v>
+        <v>1410212.37467</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2014045.95195</v>
+        <v>1999101.98524</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1808539.84342</v>
+        <v>1788905.11267</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4899066.22403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4786377.39845</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7083588.843</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>60274.22683</v>
+        <v>60257.03564</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>111855.80756</v>
+        <v>110883.79425</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>73078.23867000001</v>
+        <v>72550.38151000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>70346.69753</v>
+        <v>60219.52506</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>45490.80718</v>
+        <v>39010.42384</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>88952.18857</v>
+        <v>85472.35425</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>161063.33601</v>
+        <v>161720.44801</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>184995.83477</v>
+        <v>180061.10506</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>139859.61145</v>
+        <v>137615.01243</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>168422.0819</v>
+        <v>163298.8328</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>275333.87191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>272872.12738</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>517754.969</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>477931.86989</v>
+        <v>482346.88355</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>508868.52718</v>
+        <v>526068.0454300001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-240879.65765</v>
+        <v>-207045.5267</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>372779.88323</v>
+        <v>249426.82858</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-101246.94041</v>
+        <v>25788.64905</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>626619.71894</v>
+        <v>559504.46954</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1005248.22422</v>
+        <v>1009124.70618</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1248703.73773</v>
+        <v>1230151.26961</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1874186.3405</v>
+        <v>1861486.97281</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1640117.76152</v>
+        <v>1625606.27987</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4623732.35212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4513505.27107</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6565833.874</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>39</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>40</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>51</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>56</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>47</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>53</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>65</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>68</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>47</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>